--- a/biology/Médecine/Milieu_de_Hanks/Milieu_de_Hanks.xlsx
+++ b/biology/Médecine/Milieu_de_Hanks/Milieu_de_Hanks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu, solution ou liquide de Hanks, du nom du microbiologiste John H. Hanks qui l'a formulé dans les années 1940, est un soluté salin, tamponné, et isotonique, utilisé pour la culture tissulaire.
 </t>
@@ -511,9 +523,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce milieu contient des sels minéraux et le glucose nécessaire à la croissance cellulaire[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce milieu contient des sels minéraux et le glucose nécessaire à la croissance cellulaire :
 sels minéraux : chlorure de sodium, chlorure de calcium, sulfate de magnésium, hydrogénophosphate de sodium, phosphate de monopotassium ;
 glucose ;
 eau bidistillée additionnée de solution rouge de phénol.</t>
@@ -544,17 +558,167 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le milieu initial est modifié selon l'utilisation (milieu de culture, milieu de transport, excipient…).
-Milieu de Hanks-Simms
-C'est un milieu de culture de virus en culture tissulaire. Il se compose d'ultrafiltrat de sérum de bœuf (1 volume) et de liquide de Hanks (3 volumes) additionné d'antibiotiques lors de l'emploi[2].
-Milieu 199 de Hanks
-Il s'agit d'un milieu de culture tamponné par la solution de Hanks. Il est utilisé dans de nombreuses applications en biologie cellulaire, dont la culture de cellules non transformées[3], ainsi que dans des fabrications industrielles de nombreuses solutions injectables où il sert d'excipient.
-Composition
-C'est un milieu de culture chimiquement défini, c'est-à-dire dont on connaît la composition exacte à l'inverse des milieux de cultures basés sur les fluides biologiques. Il est composé d'acides aminés, de sels minéraux, de vitamines et autres composants[4],[5].
-Vaccins
-Le milieu 199 de Hanks entre notamment dans la composition des vaccins suivants[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu initial est modifié selon l'utilisation (milieu de culture, milieu de transport, excipient…).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Milieu_de_Hanks</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_Hanks</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Milieu de Hanks-Simms</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un milieu de culture de virus en culture tissulaire. Il se compose d'ultrafiltrat de sérum de bœuf (1 volume) et de liquide de Hanks (3 volumes) additionné d'antibiotiques lors de l'emploi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Milieu_de_Hanks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_Hanks</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Milieu 199 de Hanks</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un milieu de culture tamponné par la solution de Hanks. Il est utilisé dans de nombreuses applications en biologie cellulaire, dont la culture de cellules non transformées, ainsi que dans des fabrications industrielles de nombreuses solutions injectables où il sert d'excipient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Milieu_de_Hanks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_Hanks</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Milieu 199 de Hanks</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un milieu de culture chimiquement défini, c'est-à-dire dont on connaît la composition exacte à l'inverse des milieux de cultures basés sur les fluides biologiques. Il est composé d'acides aminés, de sels minéraux, de vitamines et autres composants,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Milieu_de_Hanks</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_Hanks</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Milieu 199 de Hanks</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vaccins</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le milieu 199 de Hanks entre notamment dans la composition des vaccins suivants :
 Avaxim (hépatite A) ;
 Boostrixtetra (diphtérie, tétanos, poliomyélite, coqueluche) ;
 Imovax Polio (poliomyélite) ;
